--- a/Separate_Data/Human_Development_Index_2023.xlsx
+++ b/Separate_Data/Human_Development_Index_2023.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Main Directory\Random Stuff\Countries_Data_Analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Main_Directory\Random_Stuff\Countries_Data_Analysis\Separate_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4BE978CD-51E7-4484-BD66-577466798BBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9CD0C2C-4A01-46DA-8DCD-AF9357CDDC8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10598" yWindow="10702" windowWidth="20714" windowHeight="13156" xr2:uid="{3BF03851-397F-463C-B737-4DF3CEE5434A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{3BF03851-397F-463C-B737-4DF3CEE5434A}"/>
   </bookViews>
   <sheets>
-    <sheet name="Table 1. HDI" sheetId="1" r:id="rId1"/>
+    <sheet name="hdi" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -8984,9 +8984,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9219,19 +9222,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{04B82410-4ECD-4A5C-B695-015164DEC207}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{72E73EB8-E924-4313-8969-E840D8168F7B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -9256,9 +9255,10 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{72E73EB8-E924-4313-8969-E840D8168F7B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{04B82410-4ECD-4A5C-B695-015164DEC207}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Separate_Data/Human_Development_Index_2023.xlsx
+++ b/Separate_Data/Human_Development_Index_2023.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Main_Directory\Random_Stuff\Countries_Data_Analysis\Separate_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9CD0C2C-4A01-46DA-8DCD-AF9357CDDC8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BA399AF-552C-4985-9685-9AF1155BE168}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{3BF03851-397F-463C-B737-4DF3CEE5434A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="1" xr2:uid="{3BF03851-397F-463C-B737-4DF3CEE5434A}"/>
   </bookViews>
   <sheets>
     <sheet name="hdi" sheetId="1" r:id="rId1"/>
+    <sheet name="hdi-clean-table" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="311">
   <si>
     <t>Table 1. Human Development Index and its components</t>
   </si>
@@ -1184,6 +1185,18 @@
       <t>: Calculated based on data in columns 1 and 5.</t>
     </r>
   </si>
+  <si>
+    <t>HDI</t>
+  </si>
+  <si>
+    <t>Rank</t>
+  </si>
+  <si>
+    <t>Years of life expectancy at birth</t>
+  </si>
+  <si>
+    <t>Gross national income (GNI) per capita (USD)</t>
+  </si>
 </sst>
 </file>
 
@@ -1194,7 +1207,7 @@
     <numFmt numFmtId="165" formatCode="#,###,##0.000"/>
     <numFmt numFmtId="166" formatCode="#,###,##0.0"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1248,6 +1261,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1276,7 +1295,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1328,12 +1347,245 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal 2" xfId="1" xr:uid="{252B4E0E-60AC-4AF7-BBA0-8E0ECD0247B4}"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="9">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="#,###,##0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="#,###,##0.0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="#,###,##0.0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="#,###,##0.0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="#,###,##0.000"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="#,###,##0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1344,6 +1596,22 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1907F8D9-44F1-47B2-A510-CF725BE6F002}" name="Tabelle1" displayName="Tabelle1" ref="A1:G194" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+  <autoFilter ref="A1:G194" xr:uid="{1907F8D9-44F1-47B2-A510-CF725BE6F002}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{A285CC70-5619-435E-B4A3-24C77822540A}" name="Rank" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{457AC318-CD9C-4EBF-85D9-D36AFC1C9E1F}" name="Country" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{AFA52B9B-EFC7-4EE9-B5A1-5007BEE3A812}" name="HDI" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{7C32BBF9-A2E4-4478-B609-66AA94C14AFD}" name="Years of life expectancy at birth" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{C7D3F2CA-B18B-49BF-B0B8-46DF09A068F2}" name="Expected years of schooling" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{A656CB73-2985-4CC0-8B87-E0079B175FF3}" name="Mean years of schooling" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{192090A2-B9DF-41AB-A78F-B9C57A4063BC}" name="Gross national income (GNI) per capita (USD)" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1665,8 +1933,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0F7463F-3EFF-456F-821E-4E264CB4F385}">
   <dimension ref="A1:P279"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:P204"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -8983,16 +9251,4496 @@
 </worksheet>
 </file>
 
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F80F86F-DC78-40E9-BB3B-05AFBF9A2CB1}">
+  <dimension ref="A1:G194"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="49.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A1" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A2" s="11">
+        <v>1</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="13">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="D2" s="14">
+        <v>82.691000000000003</v>
+      </c>
+      <c r="E2" s="14">
+        <v>18.850589750000001</v>
+      </c>
+      <c r="F2" s="14">
+        <v>13.908926279999999</v>
+      </c>
+      <c r="G2" s="11">
+        <v>69116.937359999996</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A3" s="11">
+        <v>2</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="13">
+        <v>0.97</v>
+      </c>
+      <c r="D3" s="14">
+        <v>83.308000000000007</v>
+      </c>
+      <c r="E3" s="14">
+        <v>18.792850489999999</v>
+      </c>
+      <c r="F3" s="14">
+        <v>13.117962179999999</v>
+      </c>
+      <c r="G3" s="11">
+        <v>112710.0211</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A4" s="11">
+        <v>2</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="13">
+        <v>0.97</v>
+      </c>
+      <c r="D4" s="14">
+        <v>83.953999999999994</v>
+      </c>
+      <c r="E4" s="14">
+        <v>16.667530060000001</v>
+      </c>
+      <c r="F4" s="14">
+        <v>13.94912109</v>
+      </c>
+      <c r="G4" s="11">
+        <v>81948.901769999997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A5" s="11">
+        <v>4</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="13">
+        <v>0.96199999999999997</v>
+      </c>
+      <c r="D5" s="14">
+        <v>81.933000000000007</v>
+      </c>
+      <c r="E5" s="14">
+        <v>18.704010010000001</v>
+      </c>
+      <c r="F5" s="14">
+        <v>13.027320599999999</v>
+      </c>
+      <c r="G5" s="11">
+        <v>76007.856690000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A6" s="11">
+        <v>5</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="13">
+        <v>0.95899999999999996</v>
+      </c>
+      <c r="D6" s="14">
+        <v>81.378</v>
+      </c>
+      <c r="E6" s="14">
+        <v>17.30921936</v>
+      </c>
+      <c r="F6" s="14">
+        <v>14.296371629999999</v>
+      </c>
+      <c r="G6" s="11">
+        <v>64053.221239999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A7" s="11">
+        <v>5</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="13">
+        <v>0.95899999999999996</v>
+      </c>
+      <c r="D7" s="14">
+        <v>83.262</v>
+      </c>
+      <c r="E7" s="14">
+        <v>18.991470339999999</v>
+      </c>
+      <c r="F7" s="14">
+        <v>12.740325739999999</v>
+      </c>
+      <c r="G7" s="11">
+        <v>66102.085949999993</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A8" s="11">
+        <v>7</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="13">
+        <v>0.95799999999999996</v>
+      </c>
+      <c r="D8" s="14">
+        <v>83.923000000000002</v>
+      </c>
+      <c r="E8" s="14">
+        <v>20.654779430000001</v>
+      </c>
+      <c r="F8" s="14">
+        <v>12.869999890000001</v>
+      </c>
+      <c r="G8" s="11">
+        <v>58276.876429999997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A9" s="11">
+        <v>8</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="13">
+        <v>0.95499999999999996</v>
+      </c>
+      <c r="D9" s="14">
+        <v>85.510999999999996</v>
+      </c>
+      <c r="E9" s="14">
+        <v>16.895860670000001</v>
+      </c>
+      <c r="F9" s="14">
+        <v>12.350000380000001</v>
+      </c>
+      <c r="G9" s="11">
+        <v>69435.757060000004</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A10" s="11">
+        <v>8</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="13">
+        <v>0.95499999999999996</v>
+      </c>
+      <c r="D10" s="14">
+        <v>82.158000000000001</v>
+      </c>
+      <c r="E10" s="14">
+        <v>18.58485031</v>
+      </c>
+      <c r="F10" s="14">
+        <v>12.66994689</v>
+      </c>
+      <c r="G10" s="11">
+        <v>68344.308260000005</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A11" s="11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="13">
+        <v>0.95099999999999996</v>
+      </c>
+      <c r="D11" s="14">
+        <v>82.114999999999995</v>
+      </c>
+      <c r="E11" s="14">
+        <v>18.996030810000001</v>
+      </c>
+      <c r="F11" s="14">
+        <v>12.68965045</v>
+      </c>
+      <c r="G11" s="11">
+        <v>63582.475350000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A12" s="11">
+        <v>11</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="13">
+        <v>0.94899999999999995</v>
+      </c>
+      <c r="D12" s="14">
+        <v>82.412000000000006</v>
+      </c>
+      <c r="E12" s="14">
+        <v>19.184879299999999</v>
+      </c>
+      <c r="F12" s="14">
+        <v>11.724999560000001</v>
+      </c>
+      <c r="G12" s="11">
+        <v>90884.634590000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A13" s="11">
+        <v>12</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="13">
+        <v>0.94799999999999995</v>
+      </c>
+      <c r="D13" s="14">
+        <v>81.91</v>
+      </c>
+      <c r="E13" s="14">
+        <v>19.494089129999999</v>
+      </c>
+      <c r="F13" s="14">
+        <v>12.97962547</v>
+      </c>
+      <c r="G13" s="11">
+        <v>57067.636930000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A14" s="11">
+        <v>13</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="13">
+        <v>0.94599999999999995</v>
+      </c>
+      <c r="D14" s="14">
+        <v>83.736000000000004</v>
+      </c>
+      <c r="E14" s="14">
+        <v>16.74227905</v>
+      </c>
+      <c r="F14" s="14">
+        <v>11.989999770000001</v>
+      </c>
+      <c r="G14" s="11">
+        <v>111239.2291</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A15" s="11">
+        <v>13</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="13">
+        <v>0.94599999999999995</v>
+      </c>
+      <c r="D15" s="14">
+        <v>81.302000000000007</v>
+      </c>
+      <c r="E15" s="14">
+        <v>17.811069490000001</v>
+      </c>
+      <c r="F15" s="14">
+        <v>13.489999770000001</v>
+      </c>
+      <c r="G15" s="11">
+        <v>54371.586340000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A16" s="11">
+        <v>15</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="13">
+        <v>0.94</v>
+      </c>
+      <c r="D16" s="14">
+        <v>82.909000000000006</v>
+      </c>
+      <c r="E16" s="14">
+        <v>15.601590160000001</v>
+      </c>
+      <c r="F16" s="14">
+        <v>12.989999770000001</v>
+      </c>
+      <c r="G16" s="11">
+        <v>71142.304749999996</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A17" s="11">
+        <v>16</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="13">
+        <v>0.93899999999999995</v>
+      </c>
+      <c r="D17" s="14">
+        <v>82.63</v>
+      </c>
+      <c r="E17" s="14">
+        <v>15.88825989</v>
+      </c>
+      <c r="F17" s="14">
+        <v>13.869999890000001</v>
+      </c>
+      <c r="G17" s="11">
+        <v>54688.417289999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A18" s="11">
+        <v>17</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="13">
+        <v>0.93799999999999994</v>
+      </c>
+      <c r="D18" s="14">
+        <v>83.63</v>
+      </c>
+      <c r="E18" s="14">
+        <v>15.412579539999999</v>
+      </c>
+      <c r="F18" s="14">
+        <v>12.40995938</v>
+      </c>
+      <c r="G18" s="11">
+        <v>166811.6741</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A19" s="11">
+        <v>17</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="13">
+        <v>0.93799999999999994</v>
+      </c>
+      <c r="D19" s="14">
+        <v>82.087999999999994</v>
+      </c>
+      <c r="E19" s="14">
+        <v>19.30005074</v>
+      </c>
+      <c r="F19" s="14">
+        <v>12.882998069999999</v>
+      </c>
+      <c r="G19" s="11">
+        <v>47259.601369999997</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A20" s="11">
+        <v>17</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" s="13">
+        <v>0.93799999999999994</v>
+      </c>
+      <c r="D20" s="14">
+        <v>79.304000000000002</v>
+      </c>
+      <c r="E20" s="14">
+        <v>15.92300034</v>
+      </c>
+      <c r="F20" s="14">
+        <v>13.90999985</v>
+      </c>
+      <c r="G20" s="11">
+        <v>73650.030769999998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A21" s="11">
+        <v>20</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="13">
+        <v>0.93700000000000006</v>
+      </c>
+      <c r="D21" s="14">
+        <v>84.328999999999994</v>
+      </c>
+      <c r="E21" s="14">
+        <v>16.618640899999999</v>
+      </c>
+      <c r="F21" s="14">
+        <v>12.722198690000001</v>
+      </c>
+      <c r="G21" s="11">
+        <v>49726.453269999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A22" s="11">
+        <v>21</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" s="13">
+        <v>0.93100000000000005</v>
+      </c>
+      <c r="D22" s="14">
+        <v>81.602999999999994</v>
+      </c>
+      <c r="E22" s="14">
+        <v>17.477170940000001</v>
+      </c>
+      <c r="F22" s="14">
+        <v>12.951201920000001</v>
+      </c>
+      <c r="G22" s="11">
+        <v>46360.807789999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A23" s="11">
+        <v>22</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" s="13">
+        <v>0.93</v>
+      </c>
+      <c r="D23" s="14">
+        <v>81.956000000000003</v>
+      </c>
+      <c r="E23" s="14">
+        <v>16.28428078</v>
+      </c>
+      <c r="F23" s="14">
+        <v>12.36146506</v>
+      </c>
+      <c r="G23" s="11">
+        <v>63479.208429999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A24" s="11">
+        <v>23</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" s="13">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="D24" s="14">
+        <v>84.712000000000003</v>
+      </c>
+      <c r="E24" s="14">
+        <v>15.511980060000001</v>
+      </c>
+      <c r="F24" s="14">
+        <v>12.684046710000001</v>
+      </c>
+      <c r="G24" s="11">
+        <v>47774.609729999996</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A25" s="11">
+        <v>24</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25" s="13">
+        <v>0.92400000000000004</v>
+      </c>
+      <c r="D25" s="14">
+        <v>83.299000000000007</v>
+      </c>
+      <c r="E25" s="14">
+        <v>15.90985012</v>
+      </c>
+      <c r="F25" s="14">
+        <v>12.4207021</v>
+      </c>
+      <c r="G25" s="11">
+        <v>52155.074869999997</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A26" s="11">
+        <v>25</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C26" s="13">
+        <v>0.92200000000000004</v>
+      </c>
+      <c r="D26" s="14">
+        <v>82.228999999999999</v>
+      </c>
+      <c r="E26" s="14">
+        <v>14.35795021</v>
+      </c>
+      <c r="F26" s="14">
+        <v>12.58937195</v>
+      </c>
+      <c r="G26" s="11">
+        <v>85461.248330000002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A27" s="11">
+        <v>26</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27" s="13">
+        <v>0.92</v>
+      </c>
+      <c r="D27" s="14">
+        <v>83.325000000000003</v>
+      </c>
+      <c r="E27" s="14">
+        <v>16.095119480000001</v>
+      </c>
+      <c r="F27" s="14">
+        <v>11.7656677</v>
+      </c>
+      <c r="G27" s="11">
+        <v>55060.160380000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A28" s="11">
+        <v>27</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28" s="13">
+        <v>0.91900000000000004</v>
+      </c>
+      <c r="D28" s="14">
+        <v>82.408000000000001</v>
+      </c>
+      <c r="E28" s="14">
+        <v>14.93416023</v>
+      </c>
+      <c r="F28" s="14">
+        <v>13.534594739999999</v>
+      </c>
+      <c r="G28" s="11">
+        <v>48050.11176</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A29" s="11">
+        <v>28</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C29" s="13">
+        <v>0.91800000000000004</v>
+      </c>
+      <c r="D29" s="14">
+        <v>83.67</v>
+      </c>
+      <c r="E29" s="14">
+        <v>17.830310820000001</v>
+      </c>
+      <c r="F29" s="14">
+        <v>10.75612495</v>
+      </c>
+      <c r="G29" s="11">
+        <v>46008.442210000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A30" s="11">
+        <v>29</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C30" s="13">
+        <v>0.91500000000000004</v>
+      </c>
+      <c r="D30" s="14">
+        <v>79.834000000000003</v>
+      </c>
+      <c r="E30" s="14">
+        <v>16.793500900000002</v>
+      </c>
+      <c r="F30" s="14">
+        <v>12.963182140000001</v>
+      </c>
+      <c r="G30" s="11">
+        <v>45889.014009999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A31" s="11">
+        <v>29</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C31" s="13">
+        <v>0.91500000000000004</v>
+      </c>
+      <c r="D31" s="14">
+        <v>83.715999999999994</v>
+      </c>
+      <c r="E31" s="14">
+        <v>16.714199069999999</v>
+      </c>
+      <c r="F31" s="14">
+        <v>10.828128270000001</v>
+      </c>
+      <c r="G31" s="11">
+        <v>52388.88306</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A32" s="11">
+        <v>29</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C32" s="13">
+        <v>0.91500000000000004</v>
+      </c>
+      <c r="D32" s="14">
+        <v>85.706000000000003</v>
+      </c>
+      <c r="E32" s="14">
+        <v>14.59976717</v>
+      </c>
+      <c r="F32" s="14">
+        <v>11.35999966</v>
+      </c>
+      <c r="G32" s="11">
+        <v>64706.37558</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A33" s="11">
+        <v>32</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C33" s="13">
+        <v>0.91300000000000003</v>
+      </c>
+      <c r="D33" s="14">
+        <v>84.040999999999997</v>
+      </c>
+      <c r="E33" s="14">
+        <v>14.54279041</v>
+      </c>
+      <c r="F33" s="14">
+        <v>11.60999966</v>
+      </c>
+      <c r="G33" s="11">
+        <v>64631.0749</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A34" s="11">
+        <v>32</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C34" s="13">
+        <v>0.91300000000000003</v>
+      </c>
+      <c r="D34" s="14">
+        <v>81.647999999999996</v>
+      </c>
+      <c r="E34" s="14">
+        <v>16.215599059999999</v>
+      </c>
+      <c r="F34" s="14">
+        <v>12.5573721</v>
+      </c>
+      <c r="G34" s="11">
+        <v>45394.15625</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A35" s="11">
+        <v>34</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C35" s="13">
+        <v>0.90800000000000003</v>
+      </c>
+      <c r="D35" s="14">
+        <v>81.856999999999999</v>
+      </c>
+      <c r="E35" s="14">
+        <v>20.845500950000002</v>
+      </c>
+      <c r="F35" s="14">
+        <v>11.553856420000001</v>
+      </c>
+      <c r="G35" s="11">
+        <v>35760.749150000003</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A36" s="11">
+        <v>35</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C36" s="13">
+        <v>0.90600000000000003</v>
+      </c>
+      <c r="D36" s="14">
+        <v>78.632999999999996</v>
+      </c>
+      <c r="E36" s="14">
+        <v>16.678279880000002</v>
+      </c>
+      <c r="F36" s="14">
+        <v>13.208542420000001</v>
+      </c>
+      <c r="G36" s="11">
+        <v>42217.637779999997</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A37" s="11">
+        <v>36</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C37" s="13">
+        <v>0.90500000000000003</v>
+      </c>
+      <c r="D37" s="14">
+        <v>79.153000000000006</v>
+      </c>
+      <c r="E37" s="14">
+        <v>15.96786022</v>
+      </c>
+      <c r="F37" s="14">
+        <v>13.562165970000001</v>
+      </c>
+      <c r="G37" s="11">
+        <v>40880.930439999996</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A38" s="11">
+        <v>37</v>
+      </c>
+      <c r="B38" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C38" s="13">
+        <v>0.9</v>
+      </c>
+      <c r="D38" s="14">
+        <v>78.731999999999999</v>
+      </c>
+      <c r="E38" s="14">
+        <v>16.949430469999999</v>
+      </c>
+      <c r="F38" s="14">
+        <v>11.606427780000001</v>
+      </c>
+      <c r="G38" s="11">
+        <v>50298.913630000003</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A39" s="11">
+        <v>38</v>
+      </c>
+      <c r="B39" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C39" s="13">
+        <v>0.89900000000000002</v>
+      </c>
+      <c r="D39" s="14">
+        <v>81.284000000000006</v>
+      </c>
+      <c r="E39" s="14">
+        <v>15.92718983</v>
+      </c>
+      <c r="F39" s="14">
+        <v>11.130000109999999</v>
+      </c>
+      <c r="G39" s="11">
+        <v>52818.795380000003</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A40" s="11">
+        <v>39</v>
+      </c>
+      <c r="B40" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C40" s="13">
+        <v>0.89500000000000002</v>
+      </c>
+      <c r="D40" s="14">
+        <v>76.025000000000006</v>
+      </c>
+      <c r="E40" s="14">
+        <v>16.45467949</v>
+      </c>
+      <c r="F40" s="14">
+        <v>13.610692390000001</v>
+      </c>
+      <c r="G40" s="11">
+        <v>41916.465790000002</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A41" s="11">
+        <v>40</v>
+      </c>
+      <c r="B41" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="C41" s="13">
+        <v>0.89</v>
+      </c>
+      <c r="D41" s="14">
+        <v>82.36</v>
+      </c>
+      <c r="E41" s="14">
+        <v>17.486820219999998</v>
+      </c>
+      <c r="F41" s="14">
+        <v>9.7032544119999997</v>
+      </c>
+      <c r="G41" s="11">
+        <v>41063.92568</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A42" s="11">
+        <v>41</v>
+      </c>
+      <c r="B42" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C42" s="13">
+        <v>0.88900000000000001</v>
+      </c>
+      <c r="D42" s="14">
+        <v>78.58</v>
+      </c>
+      <c r="E42" s="14">
+        <v>16.34815025</v>
+      </c>
+      <c r="F42" s="14">
+        <v>12.0951217</v>
+      </c>
+      <c r="G42" s="11">
+        <v>41379.890270000004</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A43" s="11">
+        <v>41</v>
+      </c>
+      <c r="B43" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43" s="13">
+        <v>0.88900000000000001</v>
+      </c>
+      <c r="D43" s="14">
+        <v>76.19</v>
+      </c>
+      <c r="E43" s="14">
+        <v>16.482650759999999</v>
+      </c>
+      <c r="F43" s="14">
+        <v>13.40943983</v>
+      </c>
+      <c r="G43" s="11">
+        <v>37997.822330000003</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A44" s="11">
+        <v>43</v>
+      </c>
+      <c r="B44" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44" s="13">
+        <v>0.88600000000000001</v>
+      </c>
+      <c r="D44" s="14">
+        <v>82.367999999999995</v>
+      </c>
+      <c r="E44" s="14">
+        <v>13.14116001</v>
+      </c>
+      <c r="F44" s="14">
+        <v>10.77000046</v>
+      </c>
+      <c r="G44" s="11">
+        <v>105353.268</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A45" s="11">
+        <v>44</v>
+      </c>
+      <c r="B45" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45" s="13">
+        <v>0.88</v>
+      </c>
+      <c r="D45" s="14">
+        <v>78.340999999999994</v>
+      </c>
+      <c r="E45" s="14">
+        <v>14.946849820000001</v>
+      </c>
+      <c r="F45" s="14">
+        <v>13.103203969999999</v>
+      </c>
+      <c r="G45" s="11">
+        <v>36792.988740000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A46" s="11">
+        <v>45</v>
+      </c>
+      <c r="B46" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46" s="13">
+        <v>0.878</v>
+      </c>
+      <c r="D46" s="14">
+        <v>81.167000000000002</v>
+      </c>
+      <c r="E46" s="14">
+        <v>16.912420269999998</v>
+      </c>
+      <c r="F46" s="14">
+        <v>11.291053939999999</v>
+      </c>
+      <c r="G46" s="11">
+        <v>28047.1698</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A47" s="11">
+        <v>46</v>
+      </c>
+      <c r="B47" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47" s="13">
+        <v>0.87</v>
+      </c>
+      <c r="D47" s="14">
+        <v>77.024000000000001</v>
+      </c>
+      <c r="E47" s="14">
+        <v>15.46940041</v>
+      </c>
+      <c r="F47" s="14">
+        <v>12.33162229</v>
+      </c>
+      <c r="G47" s="11">
+        <v>37236.074619999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A48" s="11">
+        <v>47</v>
+      </c>
+      <c r="B48" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48" s="13">
+        <v>0.86499999999999999</v>
+      </c>
+      <c r="D48" s="14">
+        <v>77.394999999999996</v>
+      </c>
+      <c r="E48" s="14">
+        <v>18.831209179999998</v>
+      </c>
+      <c r="F48" s="14">
+        <v>11.18458184</v>
+      </c>
+      <c r="G48" s="11">
+        <v>25876.053070000002</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A49" s="11">
+        <v>48</v>
+      </c>
+      <c r="B49" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49" s="13">
+        <v>0.86199999999999999</v>
+      </c>
+      <c r="D49" s="14">
+        <v>77.087000000000003</v>
+      </c>
+      <c r="E49" s="14">
+        <v>15.53652954</v>
+      </c>
+      <c r="F49" s="14">
+        <v>12.773925719999999</v>
+      </c>
+      <c r="G49" s="11">
+        <v>28026.330399999999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A50" s="11">
+        <v>48</v>
+      </c>
+      <c r="B50" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50" s="13">
+        <v>0.86199999999999999</v>
+      </c>
+      <c r="D50" s="14">
+        <v>78.138000000000005</v>
+      </c>
+      <c r="E50" s="14">
+        <v>17.483959200000001</v>
+      </c>
+      <c r="F50" s="14">
+        <v>10.539999959999999</v>
+      </c>
+      <c r="G50" s="11">
+        <v>28649.82199</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A51" s="11">
+        <v>50</v>
+      </c>
+      <c r="B51" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51" s="13">
+        <v>0.85799999999999998</v>
+      </c>
+      <c r="D51" s="14">
+        <v>80.031000000000006</v>
+      </c>
+      <c r="E51" s="14">
+        <v>13.43931961</v>
+      </c>
+      <c r="F51" s="14">
+        <v>11.89000034</v>
+      </c>
+      <c r="G51" s="11">
+        <v>36096.041230000003</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A52" s="11">
+        <v>51</v>
+      </c>
+      <c r="B52" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52" s="13">
+        <v>0.85299999999999998</v>
+      </c>
+      <c r="D52" s="14">
+        <v>77.156000000000006</v>
+      </c>
+      <c r="E52" s="14">
+        <v>19.8307991</v>
+      </c>
+      <c r="F52" s="14">
+        <v>8.9862436599999995</v>
+      </c>
+      <c r="G52" s="11">
+        <v>34506.980649999998</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A53" s="11">
+        <v>52</v>
+      </c>
+      <c r="B53" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53" s="13">
+        <v>0.85199999999999998</v>
+      </c>
+      <c r="D53" s="14">
+        <v>80.405000000000001</v>
+      </c>
+      <c r="E53" s="14">
+        <v>15.904240290000001</v>
+      </c>
+      <c r="F53" s="14">
+        <v>7.5660071120000003</v>
+      </c>
+      <c r="G53" s="11">
+        <v>56612.046990000003</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A54" s="11">
+        <v>53</v>
+      </c>
+      <c r="B54" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54" s="13">
+        <v>0.85099999999999998</v>
+      </c>
+      <c r="D54" s="14">
+        <v>77.597999999999999</v>
+      </c>
+      <c r="E54" s="14">
+        <v>15.50299899</v>
+      </c>
+      <c r="F54" s="14">
+        <v>11.647500040000001</v>
+      </c>
+      <c r="G54" s="11">
+        <v>27386.517930000002</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A55" s="11">
+        <v>54</v>
+      </c>
+      <c r="B55" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55" s="13">
+        <v>0.84799999999999998</v>
+      </c>
+      <c r="D55" s="14">
+        <v>72.861999999999995</v>
+      </c>
+      <c r="E55" s="14">
+        <v>18.22489929</v>
+      </c>
+      <c r="F55" s="14">
+        <v>11.199949999999999</v>
+      </c>
+      <c r="G55" s="11">
+        <v>29195.037919999999</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A56" s="11">
+        <v>55</v>
+      </c>
+      <c r="B56" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56" s="13">
+        <v>0.84499999999999997</v>
+      </c>
+      <c r="D56" s="14">
+        <v>75.635999999999996</v>
+      </c>
+      <c r="E56" s="14">
+        <v>15.3166399</v>
+      </c>
+      <c r="F56" s="14">
+        <v>11.45453092</v>
+      </c>
+      <c r="G56" s="11">
+        <v>32174.93003</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A57" s="11">
+        <v>55</v>
+      </c>
+      <c r="B57" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57" s="13">
+        <v>0.84499999999999997</v>
+      </c>
+      <c r="D57" s="14">
+        <v>75.938000000000002</v>
+      </c>
+      <c r="E57" s="14">
+        <v>14.052880289999999</v>
+      </c>
+      <c r="F57" s="14">
+        <v>11.55000019</v>
+      </c>
+      <c r="G57" s="11">
+        <v>39374.253720000001</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A58" s="11">
+        <v>57</v>
+      </c>
+      <c r="B58" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58" s="13">
+        <v>0.84399999999999997</v>
+      </c>
+      <c r="D58" s="14">
+        <v>74.495999999999995</v>
+      </c>
+      <c r="E58" s="14">
+        <v>16.75470924</v>
+      </c>
+      <c r="F58" s="14">
+        <v>12.69999981</v>
+      </c>
+      <c r="G58" s="11">
+        <v>20752.570090000001</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A59" s="11">
+        <v>58</v>
+      </c>
+      <c r="B59" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59" s="13">
+        <v>0.84</v>
+      </c>
+      <c r="D59" s="14">
+        <v>72.144999999999996</v>
+      </c>
+      <c r="E59" s="14">
+        <v>18.407030110000001</v>
+      </c>
+      <c r="F59" s="14">
+        <v>10.8494008</v>
+      </c>
+      <c r="G59" s="11">
+        <v>29105.437430000002</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A60" s="11">
+        <v>59</v>
+      </c>
+      <c r="B60" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="C60" s="13">
+        <v>0.83899999999999997</v>
+      </c>
+      <c r="D60" s="14">
+        <v>79.593999999999994</v>
+      </c>
+      <c r="E60" s="14">
+        <v>13.311609799999999</v>
+      </c>
+      <c r="F60" s="14">
+        <v>10.833750950000001</v>
+      </c>
+      <c r="G60" s="11">
+        <v>34384.56813</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A61" s="11">
+        <v>60</v>
+      </c>
+      <c r="B61" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="C61" s="13">
+        <v>0.83699999999999997</v>
+      </c>
+      <c r="D61" s="14">
+        <v>75.326999999999998</v>
+      </c>
+      <c r="E61" s="14">
+        <v>13.698619839999999</v>
+      </c>
+      <c r="F61" s="14">
+        <v>9.282</v>
+      </c>
+      <c r="G61" s="11">
+        <v>75826.873380000005</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A62" s="11">
+        <v>60</v>
+      </c>
+      <c r="B62" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="C62" s="13">
+        <v>0.83699999999999997</v>
+      </c>
+      <c r="D62" s="14">
+        <v>74.402000000000001</v>
+      </c>
+      <c r="E62" s="14">
+        <v>14.0086174</v>
+      </c>
+      <c r="F62" s="14">
+        <v>12.54717423</v>
+      </c>
+      <c r="G62" s="11">
+        <v>30988.528439999998</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A63" s="11">
+        <v>62</v>
+      </c>
+      <c r="B63" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="C63" s="13">
+        <v>0.83299999999999996</v>
+      </c>
+      <c r="D63" s="14">
+        <v>80.799000000000007</v>
+      </c>
+      <c r="E63" s="14">
+        <v>16.349636870000001</v>
+      </c>
+      <c r="F63" s="14">
+        <v>8.8447524990000002</v>
+      </c>
+      <c r="G63" s="11">
+        <v>23417.21315</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A64" s="11">
+        <v>62</v>
+      </c>
+      <c r="B64" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="C64" s="13">
+        <v>0.83299999999999996</v>
+      </c>
+      <c r="D64" s="14">
+        <v>76.769000000000005</v>
+      </c>
+      <c r="E64" s="14">
+        <v>15.04216003</v>
+      </c>
+      <c r="F64" s="14">
+        <v>11.64171812</v>
+      </c>
+      <c r="G64" s="11">
+        <v>23114.809529999999</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A65" s="11">
+        <v>64</v>
+      </c>
+      <c r="B65" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="C65" s="13">
+        <v>0.83199999999999996</v>
+      </c>
+      <c r="D65" s="14">
+        <v>73.153999999999996</v>
+      </c>
+      <c r="E65" s="14">
+        <v>13.18515015</v>
+      </c>
+      <c r="F65" s="14">
+        <v>12.40999985</v>
+      </c>
+      <c r="G65" s="11">
+        <v>39221.683590000001</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A66" s="11">
+        <v>65</v>
+      </c>
+      <c r="B66" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="C66" s="13">
+        <v>0.82399999999999995</v>
+      </c>
+      <c r="D66" s="14">
+        <v>74.433999999999997</v>
+      </c>
+      <c r="E66" s="14">
+        <v>13.718810080000001</v>
+      </c>
+      <c r="F66" s="14">
+        <v>12.335372980000001</v>
+      </c>
+      <c r="G66" s="11">
+        <v>26724.870999999999</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A67" s="11">
+        <v>66</v>
+      </c>
+      <c r="B67" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="C67" s="13">
+        <v>0.82</v>
+      </c>
+      <c r="D67" s="14">
+        <v>74.552000000000007</v>
+      </c>
+      <c r="E67" s="14">
+        <v>11.891379710000001</v>
+      </c>
+      <c r="F67" s="14">
+        <v>12.814419040000001</v>
+      </c>
+      <c r="G67" s="11">
+        <v>30974.68074</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A68" s="11">
+        <v>67</v>
+      </c>
+      <c r="B68" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="C68" s="13">
+        <v>0.81899999999999995</v>
+      </c>
+      <c r="D68" s="14">
+        <v>76.656999999999996</v>
+      </c>
+      <c r="E68" s="14">
+        <v>12.67639256</v>
+      </c>
+      <c r="F68" s="14">
+        <v>11.09000015</v>
+      </c>
+      <c r="G68" s="11">
+        <v>32553.091079999998</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A69" s="11">
+        <v>68</v>
+      </c>
+      <c r="B69" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="C69" s="13">
+        <v>0.81499999999999995</v>
+      </c>
+      <c r="D69" s="14">
+        <v>77.394999999999996</v>
+      </c>
+      <c r="E69" s="14">
+        <v>14.781439779999999</v>
+      </c>
+      <c r="F69" s="14">
+        <v>10.22999954</v>
+      </c>
+      <c r="G69" s="11">
+        <v>22128.394609999999</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A70" s="11">
+        <v>69</v>
+      </c>
+      <c r="B70" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="C70" s="13">
+        <v>0.81100000000000005</v>
+      </c>
+      <c r="D70" s="14">
+        <v>75.683000000000007</v>
+      </c>
+      <c r="E70" s="14">
+        <v>14.3838501</v>
+      </c>
+      <c r="F70" s="14">
+        <v>11.344978210000001</v>
+      </c>
+      <c r="G70" s="11">
+        <v>20220.723190000001</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A71" s="11">
+        <v>69</v>
+      </c>
+      <c r="B71" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="C71" s="13">
+        <v>0.81100000000000005</v>
+      </c>
+      <c r="D71" s="14">
+        <v>76.177999999999997</v>
+      </c>
+      <c r="E71" s="14">
+        <v>16.6280018</v>
+      </c>
+      <c r="F71" s="14">
+        <v>9.9283568899999999</v>
+      </c>
+      <c r="G71" s="11">
+        <v>17327.520469999999</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A72" s="11">
+        <v>71</v>
+      </c>
+      <c r="B72" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="C72" s="13">
+        <v>0.81</v>
+      </c>
+      <c r="D72" s="14">
+        <v>79.602000000000004</v>
+      </c>
+      <c r="E72" s="14">
+        <v>14.51014996</v>
+      </c>
+      <c r="F72" s="14">
+        <v>10.17531099</v>
+      </c>
+      <c r="G72" s="11">
+        <v>17627.394039999999</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A73" s="11">
+        <v>72</v>
+      </c>
+      <c r="B73" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="C73" s="13">
+        <v>0.80700000000000005</v>
+      </c>
+      <c r="D73" s="14">
+        <v>73.489999999999995</v>
+      </c>
+      <c r="E73" s="14">
+        <v>14.23764336</v>
+      </c>
+      <c r="F73" s="14">
+        <v>10.792750359999999</v>
+      </c>
+      <c r="G73" s="11">
+        <v>27000.145110000001</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A74" s="11">
+        <v>73</v>
+      </c>
+      <c r="B74" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="C74" s="13">
+        <v>0.80600000000000005</v>
+      </c>
+      <c r="D74" s="14">
+        <v>74.926000000000002</v>
+      </c>
+      <c r="E74" s="14">
+        <v>14.16282114</v>
+      </c>
+      <c r="F74" s="14">
+        <v>10.10332754</v>
+      </c>
+      <c r="G74" s="11">
+        <v>27279.96011</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A75" s="11">
+        <v>74</v>
+      </c>
+      <c r="B75" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="C75" s="13">
+        <v>0.80400000000000005</v>
+      </c>
+      <c r="D75" s="14">
+        <v>77.849999999999994</v>
+      </c>
+      <c r="E75" s="14">
+        <v>13.16394043</v>
+      </c>
+      <c r="F75" s="14">
+        <v>10.97000027</v>
+      </c>
+      <c r="G75" s="11">
+        <v>19827.48588</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A76" s="11">
+        <v>75</v>
+      </c>
+      <c r="B76" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="C76" s="13">
+        <v>0.79900000000000004</v>
+      </c>
+      <c r="D76" s="14">
+        <v>77.653999999999996</v>
+      </c>
+      <c r="E76" s="14">
+        <v>13.968330610000001</v>
+      </c>
+      <c r="F76" s="14">
+        <v>10.84671198</v>
+      </c>
+      <c r="G76" s="11">
+        <v>16095.77169</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A77" s="11">
+        <v>76</v>
+      </c>
+      <c r="B77" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="C77" s="13">
+        <v>0.79800000000000004</v>
+      </c>
+      <c r="D77" s="14">
+        <v>71.23</v>
+      </c>
+      <c r="E77" s="14">
+        <v>16.2530213</v>
+      </c>
+      <c r="F77" s="14">
+        <v>11.295349679999999</v>
+      </c>
+      <c r="G77" s="11">
+        <v>17246.63609</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A78" s="11">
+        <v>76</v>
+      </c>
+      <c r="B78" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="C78" s="13">
+        <v>0.79800000000000004</v>
+      </c>
+      <c r="D78" s="14">
+        <v>76.412000000000006</v>
+      </c>
+      <c r="E78" s="14">
+        <v>15.35883492</v>
+      </c>
+      <c r="F78" s="14">
+        <v>9.0399999619999996</v>
+      </c>
+      <c r="G78" s="11">
+        <v>20569.901760000001</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A79" s="11">
+        <v>78</v>
+      </c>
+      <c r="B79" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="C79" s="13">
+        <v>0.79700000000000004</v>
+      </c>
+      <c r="D79" s="14">
+        <v>77.953000000000003</v>
+      </c>
+      <c r="E79" s="14">
+        <v>15.478749499999999</v>
+      </c>
+      <c r="F79" s="14">
+        <v>8.0361815970000006</v>
+      </c>
+      <c r="G79" s="11">
+        <v>22029.222529999999</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A80" s="11">
+        <v>79</v>
+      </c>
+      <c r="B80" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="C80" s="13">
+        <v>0.79400000000000004</v>
+      </c>
+      <c r="D80" s="14">
+        <v>77.739999999999995</v>
+      </c>
+      <c r="E80" s="14">
+        <v>14.90939376</v>
+      </c>
+      <c r="F80" s="14">
+        <v>10.15465159</v>
+      </c>
+      <c r="G80" s="11">
+        <v>14338.709769999999</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A81" s="11">
+        <v>80</v>
+      </c>
+      <c r="B81" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="C81" s="13">
+        <v>0.79100000000000004</v>
+      </c>
+      <c r="D81" s="14">
+        <v>75.204999999999998</v>
+      </c>
+      <c r="E81" s="14">
+        <v>16.577289189999998</v>
+      </c>
+      <c r="F81" s="14">
+        <v>9.4463993070000001</v>
+      </c>
+      <c r="G81" s="11">
+        <v>14349.028039999999</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A82" s="11">
+        <v>81</v>
+      </c>
+      <c r="B82" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="C82" s="13">
+        <v>0.78900000000000003</v>
+      </c>
+      <c r="D82" s="14">
+        <v>74.429000000000002</v>
+      </c>
+      <c r="E82" s="14">
+        <v>12.90977955</v>
+      </c>
+      <c r="F82" s="14">
+        <v>11.06999969</v>
+      </c>
+      <c r="G82" s="11">
+        <v>20667.957289999998</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A83" s="11">
+        <v>81</v>
+      </c>
+      <c r="B83" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="C83" s="13">
+        <v>0.78900000000000003</v>
+      </c>
+      <c r="D83" s="14">
+        <v>75.069000000000003</v>
+      </c>
+      <c r="E83" s="14">
+        <v>14.468110080000001</v>
+      </c>
+      <c r="F83" s="14">
+        <v>9.3495109339999996</v>
+      </c>
+      <c r="G83" s="11">
+        <v>21812.65566</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A84" s="11">
+        <v>83</v>
+      </c>
+      <c r="B84" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="C84" s="13">
+        <v>0.78800000000000003</v>
+      </c>
+      <c r="D84" s="14">
+        <v>77.724999999999994</v>
+      </c>
+      <c r="E84" s="14">
+        <v>14.286410330000001</v>
+      </c>
+      <c r="F84" s="14">
+        <v>9.0315815970000006</v>
+      </c>
+      <c r="G84" s="11">
+        <v>18665.949670000002</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A85" s="11">
+        <v>84</v>
+      </c>
+      <c r="B85" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="C85" s="13">
+        <v>0.78600000000000003</v>
+      </c>
+      <c r="D85" s="14">
+        <v>75.847999999999999</v>
+      </c>
+      <c r="E85" s="14">
+        <v>15.7927103</v>
+      </c>
+      <c r="F85" s="14">
+        <v>8.4253717520000002</v>
+      </c>
+      <c r="G85" s="11">
+        <v>18011.285459999999</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A86" s="11">
+        <v>84</v>
+      </c>
+      <c r="B86" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="C86" s="13">
+        <v>0.78600000000000003</v>
+      </c>
+      <c r="D86" s="14">
+        <v>69.269000000000005</v>
+      </c>
+      <c r="E86" s="14">
+        <v>14.06742382</v>
+      </c>
+      <c r="F86" s="14">
+        <v>13.29903477</v>
+      </c>
+      <c r="G86" s="11">
+        <v>16034.51036</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A87" s="11">
+        <v>86</v>
+      </c>
+      <c r="B87" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="C87" s="13">
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="D87" s="14">
+        <v>71.197999999999993</v>
+      </c>
+      <c r="E87" s="14">
+        <v>14.638568469999999</v>
+      </c>
+      <c r="F87" s="14">
+        <v>11.829999920000001</v>
+      </c>
+      <c r="G87" s="11">
+        <v>15866.54207</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A88" s="11">
+        <v>87</v>
+      </c>
+      <c r="B88" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="C88" s="13">
+        <v>0.77900000000000003</v>
+      </c>
+      <c r="D88" s="14">
+        <v>73.421999999999997</v>
+      </c>
+      <c r="E88" s="14">
+        <v>13.328009610000001</v>
+      </c>
+      <c r="F88" s="14">
+        <v>11.12273899</v>
+      </c>
+      <c r="G88" s="11">
+        <v>16933.144530000001</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A89" s="11">
+        <v>88</v>
+      </c>
+      <c r="B89" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="C89" s="13">
+        <v>0.77700000000000002</v>
+      </c>
+      <c r="D89" s="14">
+        <v>77.391999999999996</v>
+      </c>
+      <c r="E89" s="14">
+        <v>14.85167027</v>
+      </c>
+      <c r="F89" s="14">
+        <v>8.9700002669999996</v>
+      </c>
+      <c r="G89" s="11">
+        <v>13986.39698</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A90" s="11">
+        <v>89</v>
+      </c>
+      <c r="B90" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="C90" s="13">
+        <v>0.77600000000000002</v>
+      </c>
+      <c r="D90" s="14">
+        <v>73.72</v>
+      </c>
+      <c r="E90" s="14">
+        <v>13.61692047</v>
+      </c>
+      <c r="F90" s="14">
+        <v>9.4445257560000009</v>
+      </c>
+      <c r="G90" s="11">
+        <v>22023.510590000002</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A91" s="11">
+        <v>89</v>
+      </c>
+      <c r="B91" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="C91" s="13">
+        <v>0.77600000000000002</v>
+      </c>
+      <c r="D91" s="14">
+        <v>70.180000000000007</v>
+      </c>
+      <c r="E91" s="14">
+        <v>13.022057650000001</v>
+      </c>
+      <c r="F91" s="14">
+        <v>8.7024296719999992</v>
+      </c>
+      <c r="G91" s="11">
+        <v>46959.251730000004</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A92" s="11">
+        <v>89</v>
+      </c>
+      <c r="B92" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="C92" s="13">
+        <v>0.77600000000000002</v>
+      </c>
+      <c r="D92" s="14">
+        <v>77.483000000000004</v>
+      </c>
+      <c r="E92" s="14">
+        <v>13.12815666</v>
+      </c>
+      <c r="F92" s="14">
+        <v>10.77000046</v>
+      </c>
+      <c r="G92" s="11">
+        <v>12615.60045</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A93" s="11">
+        <v>92</v>
+      </c>
+      <c r="B93" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="C93" s="13">
+        <v>0.76900000000000002</v>
+      </c>
+      <c r="D93" s="14">
+        <v>72.894999999999996</v>
+      </c>
+      <c r="E93" s="14">
+        <v>17.786930179999999</v>
+      </c>
+      <c r="F93" s="14">
+        <v>10.914948949999999</v>
+      </c>
+      <c r="G93" s="11">
+        <v>7438.2100920000003</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A94" s="11">
+        <v>93</v>
+      </c>
+      <c r="B94" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="C94" s="13">
+        <v>0.76600000000000001</v>
+      </c>
+      <c r="D94" s="14">
+        <v>81.040999999999997</v>
+      </c>
+      <c r="E94" s="14">
+        <v>12.76840687</v>
+      </c>
+      <c r="F94" s="14">
+        <v>7.4103728660000003</v>
+      </c>
+      <c r="G94" s="11">
+        <v>19317.31882</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A95" s="11">
+        <v>93</v>
+      </c>
+      <c r="B95" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="C95" s="13">
+        <v>0.76600000000000001</v>
+      </c>
+      <c r="D95" s="14">
+        <v>74.587999999999994</v>
+      </c>
+      <c r="E95" s="14">
+        <v>15.457715029999999</v>
+      </c>
+      <c r="F95" s="14">
+        <v>8.9799995419999998</v>
+      </c>
+      <c r="G95" s="11">
+        <v>13032.635329999999</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A96" s="11">
+        <v>95</v>
+      </c>
+      <c r="B96" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="C96" s="13">
+        <v>0.76400000000000001</v>
+      </c>
+      <c r="D96" s="14">
+        <v>70.072999999999993</v>
+      </c>
+      <c r="E96" s="14">
+        <v>13.240579609999999</v>
+      </c>
+      <c r="F96" s="14">
+        <v>11.20780193</v>
+      </c>
+      <c r="G96" s="11">
+        <v>17715.58167</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A97" s="11">
+        <v>96</v>
+      </c>
+      <c r="B97" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="C97" s="13">
+        <v>0.76300000000000001</v>
+      </c>
+      <c r="D97" s="14">
+        <v>76.260999999999996</v>
+      </c>
+      <c r="E97" s="14">
+        <v>15.4951601</v>
+      </c>
+      <c r="F97" s="14">
+        <v>7.4163869870000001</v>
+      </c>
+      <c r="G97" s="11">
+        <v>15114.17175</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A98" s="11">
+        <v>97</v>
+      </c>
+      <c r="B98" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="C98" s="13">
+        <v>0.76200000000000001</v>
+      </c>
+      <c r="D98" s="14">
+        <v>78.084999999999994</v>
+      </c>
+      <c r="E98" s="14">
+        <v>13.87884045</v>
+      </c>
+      <c r="F98" s="14">
+        <v>10.631489029999999</v>
+      </c>
+      <c r="G98" s="11">
+        <v>8415.4117079999996</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A99" s="11">
+        <v>98</v>
+      </c>
+      <c r="B99" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="C99" s="13">
+        <v>0.76100000000000001</v>
+      </c>
+      <c r="D99" s="14">
+        <v>71.132000000000005</v>
+      </c>
+      <c r="E99" s="14">
+        <v>14.150999669999999</v>
+      </c>
+      <c r="F99" s="14">
+        <v>10.12508965</v>
+      </c>
+      <c r="G99" s="11">
+        <v>16001.12551</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A100" s="11">
+        <v>99</v>
+      </c>
+      <c r="B100" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="C100" s="13">
+        <v>0.75600000000000001</v>
+      </c>
+      <c r="D100" s="14">
+        <v>73.843999999999994</v>
+      </c>
+      <c r="E100" s="14">
+        <v>13.98706964</v>
+      </c>
+      <c r="F100" s="14">
+        <v>8.9306533849999994</v>
+      </c>
+      <c r="G100" s="11">
+        <v>15252.220160000001</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A101" s="11">
+        <v>100</v>
+      </c>
+      <c r="B101" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="C101" s="13">
+        <v>0.754</v>
+      </c>
+      <c r="D101" s="14">
+        <v>71.632999999999996</v>
+      </c>
+      <c r="E101" s="14">
+        <v>13.12716193</v>
+      </c>
+      <c r="F101" s="14">
+        <v>10.136119620000001</v>
+      </c>
+      <c r="G101" s="11">
+        <v>16218.13521</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A102" s="11">
+        <v>100</v>
+      </c>
+      <c r="B102" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="C102" s="13">
+        <v>0.754</v>
+      </c>
+      <c r="D102" s="14">
+        <v>77.813999999999993</v>
+      </c>
+      <c r="E102" s="14">
+        <v>13.109049799999999</v>
+      </c>
+      <c r="F102" s="14">
+        <v>10.239999770000001</v>
+      </c>
+      <c r="G102" s="11">
+        <v>9221.8723580000005</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A103" s="11">
+        <v>102</v>
+      </c>
+      <c r="B103" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="C103" s="13">
+        <v>0.752</v>
+      </c>
+      <c r="D103" s="14">
+        <v>77.816999999999993</v>
+      </c>
+      <c r="E103" s="14">
+        <v>11.68299961</v>
+      </c>
+      <c r="F103" s="14">
+        <v>10.369999890000001</v>
+      </c>
+      <c r="G103" s="11">
+        <v>11298.88724</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A104" s="11">
+        <v>103</v>
+      </c>
+      <c r="B104" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="C104" s="13">
+        <v>0.748</v>
+      </c>
+      <c r="D104" s="14">
+        <v>72.697000000000003</v>
+      </c>
+      <c r="E104" s="14">
+        <v>12.73040962</v>
+      </c>
+      <c r="F104" s="14">
+        <v>8.6141670549999994</v>
+      </c>
+      <c r="G104" s="11">
+        <v>20899.781930000001</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A105" s="11">
+        <v>104</v>
+      </c>
+      <c r="B105" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="C105" s="13">
+        <v>0.747</v>
+      </c>
+      <c r="D105" s="14">
+        <v>71.733999999999995</v>
+      </c>
+      <c r="E105" s="14">
+        <v>13.637654299999999</v>
+      </c>
+      <c r="F105" s="14">
+        <v>9.4200000760000009</v>
+      </c>
+      <c r="G105" s="11">
+        <v>14787.08237</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A106" s="11">
+        <v>105</v>
+      </c>
+      <c r="B106" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="C106" s="13">
+        <v>0.746</v>
+      </c>
+      <c r="D106" s="14">
+        <v>76.507999999999996</v>
+      </c>
+      <c r="E106" s="14">
+        <v>14.673498560000001</v>
+      </c>
+      <c r="F106" s="14">
+        <v>7.5949201579999999</v>
+      </c>
+      <c r="G106" s="11">
+        <v>12011.387849999999</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A107" s="11">
+        <v>106</v>
+      </c>
+      <c r="B107" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="C107" s="13">
+        <v>0.74099999999999999</v>
+      </c>
+      <c r="D107" s="14">
+        <v>66.138999999999996</v>
+      </c>
+      <c r="E107" s="14">
+        <v>13.79325008</v>
+      </c>
+      <c r="F107" s="14">
+        <v>11.60999966</v>
+      </c>
+      <c r="G107" s="11">
+        <v>13693.988579999999</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A108" s="11">
+        <v>107</v>
+      </c>
+      <c r="B108" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="C108" s="13">
+        <v>0.74</v>
+      </c>
+      <c r="D108" s="14">
+        <v>72.388000000000005</v>
+      </c>
+      <c r="E108" s="14">
+        <v>12.46086979</v>
+      </c>
+      <c r="F108" s="14">
+        <v>11.90999985</v>
+      </c>
+      <c r="G108" s="11">
+        <v>8825.7308929999999</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A109" s="11">
+        <v>108</v>
+      </c>
+      <c r="B109" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="C109" s="13">
+        <v>0.73299999999999998</v>
+      </c>
+      <c r="D109" s="14">
+        <v>68.581000000000003</v>
+      </c>
+      <c r="E109" s="14">
+        <v>15.610650059999999</v>
+      </c>
+      <c r="F109" s="14">
+        <v>10.021223190000001</v>
+      </c>
+      <c r="G109" s="11">
+        <v>9445.2448679999998</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A110" s="11">
+        <v>108</v>
+      </c>
+      <c r="B110" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="C110" s="13">
+        <v>0.73299999999999998</v>
+      </c>
+      <c r="D110" s="14">
+        <v>68.337000000000003</v>
+      </c>
+      <c r="E110" s="14">
+        <v>12.482758889999999</v>
+      </c>
+      <c r="F110" s="14">
+        <v>9.6859999999999999</v>
+      </c>
+      <c r="G110" s="11">
+        <v>18854.06151</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A111" s="11">
+        <v>108</v>
+      </c>
+      <c r="B111" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="C111" s="13">
+        <v>0.73299999999999998</v>
+      </c>
+      <c r="D111" s="14">
+        <v>66.944999999999993</v>
+      </c>
+      <c r="E111" s="14">
+        <v>16.386060709999999</v>
+      </c>
+      <c r="F111" s="14">
+        <v>11.636664400000001</v>
+      </c>
+      <c r="G111" s="11">
+        <v>7223.860831</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A112" s="11">
+        <v>111</v>
+      </c>
+      <c r="B112" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="C112" s="13">
+        <v>0.73099999999999998</v>
+      </c>
+      <c r="D112" s="14">
+        <v>69.162999999999997</v>
+      </c>
+      <c r="E112" s="14">
+        <v>11.425680160000001</v>
+      </c>
+      <c r="F112" s="14">
+        <v>10.478</v>
+      </c>
+      <c r="G112" s="11">
+        <v>16983.77103</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A113" s="11">
+        <v>111</v>
+      </c>
+      <c r="B113" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="C113" s="13">
+        <v>0.73099999999999998</v>
+      </c>
+      <c r="D113" s="14">
+        <v>67.316000000000003</v>
+      </c>
+      <c r="E113" s="14">
+        <v>13.84869</v>
+      </c>
+      <c r="F113" s="14">
+        <v>10.37096977</v>
+      </c>
+      <c r="G113" s="11">
+        <v>12843.158890000001</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A114" s="11">
+        <v>113</v>
+      </c>
+      <c r="B114" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="C114" s="13">
+        <v>0.72799999999999998</v>
+      </c>
+      <c r="D114" s="14">
+        <v>71.146000000000001</v>
+      </c>
+      <c r="E114" s="14">
+        <v>13.33577728</v>
+      </c>
+      <c r="F114" s="14">
+        <v>8.6972231999999998</v>
+      </c>
+      <c r="G114" s="11">
+        <v>13700.12989</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A115" s="11">
+        <v>114</v>
+      </c>
+      <c r="B115" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="C115" s="13">
+        <v>0.72199999999999998</v>
+      </c>
+      <c r="D115" s="14">
+        <v>73.631</v>
+      </c>
+      <c r="E115" s="14">
+        <v>10.95909977</v>
+      </c>
+      <c r="F115" s="14">
+        <v>8.4297595820000009</v>
+      </c>
+      <c r="G115" s="11">
+        <v>17344.386910000001</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A116" s="11">
+        <v>115</v>
+      </c>
+      <c r="B116" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="C116" s="13">
+        <v>0.72099999999999997</v>
+      </c>
+      <c r="D116" s="14">
+        <v>73.566000000000003</v>
+      </c>
+      <c r="E116" s="14">
+        <v>11.98379993</v>
+      </c>
+      <c r="F116" s="14">
+        <v>8.7622900010000002</v>
+      </c>
+      <c r="G116" s="11">
+        <v>12343.07814</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A117" s="11">
+        <v>115</v>
+      </c>
+      <c r="B117" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="C117" s="13">
+        <v>0.72099999999999997</v>
+      </c>
+      <c r="D117" s="14">
+        <v>69.338999999999999</v>
+      </c>
+      <c r="E117" s="14">
+        <v>12.92465677</v>
+      </c>
+      <c r="F117" s="14">
+        <v>7.77860643</v>
+      </c>
+      <c r="G117" s="11">
+        <v>19831.432359999999</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A118" s="11">
+        <v>117</v>
+      </c>
+      <c r="B118" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="C118" s="13">
+        <v>0.72</v>
+      </c>
+      <c r="D118" s="14">
+        <v>71.478999999999999</v>
+      </c>
+      <c r="E118" s="14">
+        <v>12.383395500000001</v>
+      </c>
+      <c r="F118" s="14">
+        <v>9.9599103929999995</v>
+      </c>
+      <c r="G118" s="11">
+        <v>10056.98531</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A119" s="11">
+        <v>117</v>
+      </c>
+      <c r="B119" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="C119" s="13">
+        <v>0.72</v>
+      </c>
+      <c r="D119" s="14">
+        <v>71.677000000000007</v>
+      </c>
+      <c r="E119" s="14">
+        <v>12.71388245</v>
+      </c>
+      <c r="F119" s="14">
+        <v>12.065888579999999</v>
+      </c>
+      <c r="G119" s="11">
+        <v>6078.1175890000004</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A120" s="11">
+        <v>117</v>
+      </c>
+      <c r="B120" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="C120" s="13">
+        <v>0.72</v>
+      </c>
+      <c r="D120" s="14">
+        <v>69.832999999999998</v>
+      </c>
+      <c r="E120" s="14">
+        <v>12.81904666</v>
+      </c>
+      <c r="F120" s="14">
+        <v>9.9772396089999997</v>
+      </c>
+      <c r="G120" s="11">
+        <v>10731.20422</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A121" s="11">
+        <v>120</v>
+      </c>
+      <c r="B121" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="C121" s="13">
+        <v>0.71</v>
+      </c>
+      <c r="D121" s="14">
+        <v>75.313000000000002</v>
+      </c>
+      <c r="E121" s="14">
+        <v>15.074990270000001</v>
+      </c>
+      <c r="F121" s="14">
+        <v>6.1980000000000004</v>
+      </c>
+      <c r="G121" s="11">
+        <v>8652.8808590000008</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A122" s="11">
+        <v>121</v>
+      </c>
+      <c r="B122" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="C122" s="13">
+        <v>0.70899999999999996</v>
+      </c>
+      <c r="D122" s="14">
+        <v>72.513999999999996</v>
+      </c>
+      <c r="E122" s="14">
+        <v>12.965376539999999</v>
+      </c>
+      <c r="F122" s="14">
+        <v>9.6783853729999993</v>
+      </c>
+      <c r="G122" s="11">
+        <v>7157.08</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A123" s="11">
+        <v>122</v>
+      </c>
+      <c r="B123" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="C123" s="13">
+        <v>0.70799999999999996</v>
+      </c>
+      <c r="D123" s="14">
+        <v>71.697999999999993</v>
+      </c>
+      <c r="E123" s="14">
+        <v>12.436400000000001</v>
+      </c>
+      <c r="F123" s="14">
+        <v>11.332983609999999</v>
+      </c>
+      <c r="G123" s="11">
+        <v>5952.0169249999999</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A124" s="11">
+        <v>123</v>
+      </c>
+      <c r="B124" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="C124" s="13">
+        <v>0.70599999999999996</v>
+      </c>
+      <c r="D124" s="14">
+        <v>74.947000000000003</v>
+      </c>
+      <c r="E124" s="14">
+        <v>11.51021957</v>
+      </c>
+      <c r="F124" s="14">
+        <v>9.9330196379999993</v>
+      </c>
+      <c r="G124" s="11">
+        <v>6881.479609</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A125" s="11">
+        <v>124</v>
+      </c>
+      <c r="B125" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="C125" s="13">
+        <v>0.70299999999999996</v>
+      </c>
+      <c r="D125" s="14">
+        <v>62.109000000000002</v>
+      </c>
+      <c r="E125" s="14">
+        <v>12.84263763</v>
+      </c>
+      <c r="F125" s="14">
+        <v>9.4486376760000006</v>
+      </c>
+      <c r="G125" s="11">
+        <v>19642.377700000001</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A126" s="11">
+        <v>125</v>
+      </c>
+      <c r="B126" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="C126" s="13">
+        <v>0.69799999999999995</v>
+      </c>
+      <c r="D126" s="14">
+        <v>72.974999999999994</v>
+      </c>
+      <c r="E126" s="14">
+        <v>13.152741839999999</v>
+      </c>
+      <c r="F126" s="14">
+        <v>5.8357946619999996</v>
+      </c>
+      <c r="G126" s="11">
+        <v>13842.803529999999</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A127" s="11">
+        <v>126</v>
+      </c>
+      <c r="B127" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="C127" s="13">
+        <v>0.69499999999999995</v>
+      </c>
+      <c r="D127" s="14">
+        <v>64.123000000000005</v>
+      </c>
+      <c r="E127" s="14">
+        <v>15.246043909999999</v>
+      </c>
+      <c r="F127" s="14">
+        <v>8.6851997379999997</v>
+      </c>
+      <c r="G127" s="11">
+        <v>9919.0852300000006</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A128" s="11">
+        <v>126</v>
+      </c>
+      <c r="B128" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="C128" s="13">
+        <v>0.69499999999999995</v>
+      </c>
+      <c r="D128" s="14">
+        <v>72.323999999999998</v>
+      </c>
+      <c r="E128" s="14">
+        <v>12.359401350000001</v>
+      </c>
+      <c r="F128" s="14">
+        <v>6.7800462870000002</v>
+      </c>
+      <c r="G128" s="11">
+        <v>12653.52469</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A129" s="11">
+        <v>128</v>
+      </c>
+      <c r="B129" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="C129" s="13">
+        <v>0.69099999999999995</v>
+      </c>
+      <c r="D129" s="14">
+        <v>71.790000000000006</v>
+      </c>
+      <c r="E129" s="14">
+        <v>10.84980801</v>
+      </c>
+      <c r="F129" s="14">
+        <v>11.27094825</v>
+      </c>
+      <c r="G129" s="11">
+        <v>5746.5689689999999</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A130" s="11">
+        <v>129</v>
+      </c>
+      <c r="B130" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="C130" s="13">
+        <v>0.68899999999999995</v>
+      </c>
+      <c r="D130" s="14">
+        <v>67.105000000000004</v>
+      </c>
+      <c r="E130" s="14">
+        <v>12.37506862</v>
+      </c>
+      <c r="F130" s="14">
+        <v>10.76746107</v>
+      </c>
+      <c r="G130" s="11">
+        <v>7005.5207810000002</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A131" s="11">
+        <v>130</v>
+      </c>
+      <c r="B131" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="C131" s="13">
+        <v>0.68500000000000005</v>
+      </c>
+      <c r="D131" s="14">
+        <v>74.671999999999997</v>
+      </c>
+      <c r="E131" s="14">
+        <v>12.31016827</v>
+      </c>
+      <c r="F131" s="14">
+        <v>6.7899999619999996</v>
+      </c>
+      <c r="G131" s="11">
+        <v>8497.6586389999993</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A132" s="11">
+        <v>130</v>
+      </c>
+      <c r="B132" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="C132" s="13">
+        <v>0.68500000000000005</v>
+      </c>
+      <c r="D132" s="14">
+        <v>72.003</v>
+      </c>
+      <c r="E132" s="14">
+        <v>12.954540250000001</v>
+      </c>
+      <c r="F132" s="14">
+        <v>6.8800001140000004</v>
+      </c>
+      <c r="G132" s="11">
+        <v>9046.7563360000004</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A133" s="11">
+        <v>132</v>
+      </c>
+      <c r="B133" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="C133" s="13">
+        <v>0.67800000000000005</v>
+      </c>
+      <c r="D133" s="14">
+        <v>72.099000000000004</v>
+      </c>
+      <c r="E133" s="14">
+        <v>11.11291027</v>
+      </c>
+      <c r="F133" s="14">
+        <v>7.3000001909999996</v>
+      </c>
+      <c r="G133" s="11">
+        <v>10594.84201</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A134" s="11">
+        <v>133</v>
+      </c>
+      <c r="B134" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="C134" s="13">
+        <v>0.67400000000000004</v>
+      </c>
+      <c r="D134" s="14">
+        <v>63.707000000000001</v>
+      </c>
+      <c r="E134" s="14">
+        <v>12.49119511</v>
+      </c>
+      <c r="F134" s="14">
+        <v>8.2813270140000004</v>
+      </c>
+      <c r="G134" s="11">
+        <v>12762.46845</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A135" s="11">
+        <v>133</v>
+      </c>
+      <c r="B135" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="C135" s="13">
+        <v>0.67400000000000004</v>
+      </c>
+      <c r="D135" s="14">
+        <v>65.17</v>
+      </c>
+      <c r="E135" s="14">
+        <v>12.998009679999999</v>
+      </c>
+      <c r="F135" s="14">
+        <v>10.130000109999999</v>
+      </c>
+      <c r="G135" s="11">
+        <v>6547.0986350000003</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A136" s="11">
+        <v>135</v>
+      </c>
+      <c r="B136" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="C136" s="13">
+        <v>0.66800000000000004</v>
+      </c>
+      <c r="D136" s="14">
+        <v>76.058999999999997</v>
+      </c>
+      <c r="E136" s="14">
+        <v>11.367097169999999</v>
+      </c>
+      <c r="F136" s="14">
+        <v>6.0900390499999997</v>
+      </c>
+      <c r="G136" s="11">
+        <v>8165.3791719999999</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A137" s="11">
+        <v>136</v>
+      </c>
+      <c r="B137" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="C137" s="13">
+        <v>0.66500000000000004</v>
+      </c>
+      <c r="D137" s="14">
+        <v>67.385000000000005</v>
+      </c>
+      <c r="E137" s="14">
+        <v>11.78505588</v>
+      </c>
+      <c r="F137" s="14">
+        <v>7.273146745</v>
+      </c>
+      <c r="G137" s="11">
+        <v>10916.60872</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A138" s="11">
+        <v>137</v>
+      </c>
+      <c r="B138" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="C138" s="13">
+        <v>0.66200000000000003</v>
+      </c>
+      <c r="D138" s="14">
+        <v>72.602000000000004</v>
+      </c>
+      <c r="E138" s="14">
+        <v>10.67763042</v>
+      </c>
+      <c r="F138" s="14">
+        <v>5.8473000529999997</v>
+      </c>
+      <c r="G138" s="11">
+        <v>12458.603999999999</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A139" s="11">
+        <v>138</v>
+      </c>
+      <c r="B139" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="C139" s="13">
+        <v>0.64900000000000002</v>
+      </c>
+      <c r="D139" s="14">
+        <v>65.772000000000006</v>
+      </c>
+      <c r="E139" s="14">
+        <v>12.681947109999999</v>
+      </c>
+      <c r="F139" s="14">
+        <v>8.3226447920000002</v>
+      </c>
+      <c r="G139" s="11">
+        <v>5902.5990659999998</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A140" s="11">
+        <v>139</v>
+      </c>
+      <c r="B140" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="C140" s="13">
+        <v>0.64500000000000002</v>
+      </c>
+      <c r="D140" s="14">
+        <v>72.884</v>
+      </c>
+      <c r="E140" s="14">
+        <v>10.162206469999999</v>
+      </c>
+      <c r="F140" s="14">
+        <v>7.5102290739999997</v>
+      </c>
+      <c r="G140" s="11">
+        <v>6064.7857830000003</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A141" s="11">
+        <v>140</v>
+      </c>
+      <c r="B141" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="C141" s="13">
+        <v>0.64400000000000002</v>
+      </c>
+      <c r="D141" s="14">
+        <v>66.472999999999999</v>
+      </c>
+      <c r="E141" s="14">
+        <v>11.87390648</v>
+      </c>
+      <c r="F141" s="14">
+        <v>9.1285815689999996</v>
+      </c>
+      <c r="G141" s="11">
+        <v>4947.2804260000003</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A142" s="11">
+        <v>141</v>
+      </c>
+      <c r="B142" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="C142" s="13">
+        <v>0.63700000000000001</v>
+      </c>
+      <c r="D142" s="14">
+        <v>69.718000000000004</v>
+      </c>
+      <c r="E142" s="14">
+        <v>12.8567099</v>
+      </c>
+      <c r="F142" s="14">
+        <v>5.9875591750000003</v>
+      </c>
+      <c r="G142" s="11">
+        <v>5583.4233350000004</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A143" s="11">
+        <v>142</v>
+      </c>
+      <c r="B143" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="C143" s="13">
+        <v>0.63400000000000001</v>
+      </c>
+      <c r="D143" s="14">
+        <v>67.688999999999993</v>
+      </c>
+      <c r="E143" s="14">
+        <v>13.25306303</v>
+      </c>
+      <c r="F143" s="14">
+        <v>6.2265805509999996</v>
+      </c>
+      <c r="G143" s="11">
+        <v>5434.5946919999997</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A144" s="11">
+        <v>143</v>
+      </c>
+      <c r="B144" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="C144" s="13">
+        <v>0.628</v>
+      </c>
+      <c r="D144" s="14">
+        <v>65.498000000000005</v>
+      </c>
+      <c r="E144" s="14">
+        <v>11.418459889999999</v>
+      </c>
+      <c r="F144" s="14">
+        <v>7.1072101590000001</v>
+      </c>
+      <c r="G144" s="11">
+        <v>6846.3522039999998</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A145" s="11">
+        <v>143</v>
+      </c>
+      <c r="B145" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="C145" s="13">
+        <v>0.628</v>
+      </c>
+      <c r="D145" s="14">
+        <v>63.646000000000001</v>
+      </c>
+      <c r="E145" s="14">
+        <v>11.474075729999999</v>
+      </c>
+      <c r="F145" s="14">
+        <v>8.6247100830000001</v>
+      </c>
+      <c r="G145" s="11">
+        <v>5608.2960659999999</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A146" s="11">
+        <v>145</v>
+      </c>
+      <c r="B146" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="C146" s="13">
+        <v>0.622</v>
+      </c>
+      <c r="D146" s="14">
+        <v>70.353999999999999</v>
+      </c>
+      <c r="E146" s="14">
+        <v>13.754303930000001</v>
+      </c>
+      <c r="F146" s="14">
+        <v>4.5037298200000002</v>
+      </c>
+      <c r="G146" s="11">
+        <v>4725.9306130000004</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A147" s="11">
+        <v>146</v>
+      </c>
+      <c r="B147" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="C147" s="13">
+        <v>0.621</v>
+      </c>
+      <c r="D147" s="14">
+        <v>71.477000000000004</v>
+      </c>
+      <c r="E147" s="14">
+        <v>11.81160992</v>
+      </c>
+      <c r="F147" s="14">
+        <v>7.1832097270000004</v>
+      </c>
+      <c r="G147" s="11">
+        <v>3403.6901929999999</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A148" s="11">
+        <v>147</v>
+      </c>
+      <c r="B148" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="C148" s="13">
+        <v>0.61699999999999999</v>
+      </c>
+      <c r="D148" s="14">
+        <v>68.963999999999999</v>
+      </c>
+      <c r="E148" s="14">
+        <v>9.6054830550000005</v>
+      </c>
+      <c r="F148" s="14">
+        <v>6.0602461600000002</v>
+      </c>
+      <c r="G148" s="11">
+        <v>8106.1532180000004</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A149" s="11">
+        <v>148</v>
+      </c>
+      <c r="B149" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="C149" s="13">
+        <v>0.61599999999999999</v>
+      </c>
+      <c r="D149" s="14">
+        <v>64.617000000000004</v>
+      </c>
+      <c r="E149" s="14">
+        <v>12.1676</v>
+      </c>
+      <c r="F149" s="14">
+        <v>5.9561730089999996</v>
+      </c>
+      <c r="G149" s="11">
+        <v>6631.2765440000003</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A150" s="11">
+        <v>149</v>
+      </c>
+      <c r="B150" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="C150" s="13">
+        <v>0.61499999999999999</v>
+      </c>
+      <c r="D150" s="14">
+        <v>67.197999999999993</v>
+      </c>
+      <c r="E150" s="14">
+        <v>11.540085120000001</v>
+      </c>
+      <c r="F150" s="14">
+        <v>7.3325239800000004</v>
+      </c>
+      <c r="G150" s="11">
+        <v>4245.8782430000001</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A151" s="11">
+        <v>150</v>
+      </c>
+      <c r="B151" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="C151" s="13">
+        <v>0.60899999999999999</v>
+      </c>
+      <c r="D151" s="14">
+        <v>66.888999999999996</v>
+      </c>
+      <c r="E151" s="14">
+        <v>11.504560469999999</v>
+      </c>
+      <c r="F151" s="14">
+        <v>6.3800001140000004</v>
+      </c>
+      <c r="G151" s="11">
+        <v>4918.8105770000002</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A152" s="11">
+        <v>151</v>
+      </c>
+      <c r="B152" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="C152" s="13">
+        <v>0.60599999999999998</v>
+      </c>
+      <c r="D152" s="14">
+        <v>70.668000000000006</v>
+      </c>
+      <c r="E152" s="14">
+        <v>11.197892189999999</v>
+      </c>
+      <c r="F152" s="14">
+        <v>5.197100163</v>
+      </c>
+      <c r="G152" s="11">
+        <v>4931.016842</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A153" s="11">
+        <v>152</v>
+      </c>
+      <c r="B153" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="C153" s="13">
+        <v>0.60299999999999998</v>
+      </c>
+      <c r="D153" s="14">
+        <v>66.777000000000001</v>
+      </c>
+      <c r="E153" s="14">
+        <v>13.29446063</v>
+      </c>
+      <c r="F153" s="14">
+        <v>6.0068402289999998</v>
+      </c>
+      <c r="G153" s="11">
+        <v>3481.1214399999999</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A154" s="11">
+        <v>153</v>
+      </c>
+      <c r="B154" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="C154" s="13">
+        <v>0.59799999999999998</v>
+      </c>
+      <c r="D154" s="14">
+        <v>62.774999999999999</v>
+      </c>
+      <c r="E154" s="14">
+        <v>11.05745312</v>
+      </c>
+      <c r="F154" s="14">
+        <v>8.9308472160000001</v>
+      </c>
+      <c r="G154" s="11">
+        <v>3511.4632150000002</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A155" s="11">
+        <v>154</v>
+      </c>
+      <c r="B155" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="C155" s="13">
+        <v>0.59499999999999997</v>
+      </c>
+      <c r="D155" s="14">
+        <v>66.349000000000004</v>
+      </c>
+      <c r="E155" s="14">
+        <v>11.02052892</v>
+      </c>
+      <c r="F155" s="14">
+        <v>7.3974085430000001</v>
+      </c>
+      <c r="G155" s="11">
+        <v>3446.6758209999998</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A156" s="11">
+        <v>155</v>
+      </c>
+      <c r="B156" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="C156" s="13">
+        <v>0.58799999999999997</v>
+      </c>
+      <c r="D156" s="14">
+        <v>63.7</v>
+      </c>
+      <c r="E156" s="14">
+        <v>10.79187965</v>
+      </c>
+      <c r="F156" s="14">
+        <v>6.5741804119999996</v>
+      </c>
+      <c r="G156" s="11">
+        <v>4746.2658199999996</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A157" s="11">
+        <v>156</v>
+      </c>
+      <c r="B157" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="C157" s="13">
+        <v>0.58399999999999996</v>
+      </c>
+      <c r="D157" s="14">
+        <v>70.528000000000006</v>
+      </c>
+      <c r="E157" s="14">
+        <v>11.31304207</v>
+      </c>
+      <c r="F157" s="14">
+        <v>5.8796802000000001</v>
+      </c>
+      <c r="G157" s="11">
+        <v>2777.2667489999999</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A158" s="11">
+        <v>157</v>
+      </c>
+      <c r="B158" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="C158" s="13">
+        <v>0.58199999999999996</v>
+      </c>
+      <c r="D158" s="14">
+        <v>61.944000000000003</v>
+      </c>
+      <c r="E158" s="14">
+        <v>11.411129949999999</v>
+      </c>
+      <c r="F158" s="14">
+        <v>4.8699998859999996</v>
+      </c>
+      <c r="G158" s="11">
+        <v>6735.4162649999998</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A159" s="11">
+        <v>157</v>
+      </c>
+      <c r="B159" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="C159" s="13">
+        <v>0.58199999999999996</v>
+      </c>
+      <c r="D159" s="14">
+        <v>68.251999999999995</v>
+      </c>
+      <c r="E159" s="14">
+        <v>11.564048189999999</v>
+      </c>
+      <c r="F159" s="14">
+        <v>6.3236630820000004</v>
+      </c>
+      <c r="G159" s="11">
+        <v>2736.4100210000001</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A160" s="11">
+        <v>159</v>
+      </c>
+      <c r="B160" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="C160" s="13">
+        <v>0.57799999999999996</v>
+      </c>
+      <c r="D160" s="14">
+        <v>67.784999999999997</v>
+      </c>
+      <c r="E160" s="14">
+        <v>12.59045029</v>
+      </c>
+      <c r="F160" s="14">
+        <v>4.8800001140000004</v>
+      </c>
+      <c r="G160" s="11">
+        <v>2970.5594609999998</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A161" s="11">
+        <v>160</v>
+      </c>
+      <c r="B161" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="C161" s="13">
+        <v>0.57599999999999996</v>
+      </c>
+      <c r="D161" s="14">
+        <v>66.134</v>
+      </c>
+      <c r="E161" s="14">
+        <v>11.51107187</v>
+      </c>
+      <c r="F161" s="14">
+        <v>4.9625310779999996</v>
+      </c>
+      <c r="G161" s="11">
+        <v>3970.6477070000001</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A162" s="11">
+        <v>161</v>
+      </c>
+      <c r="B162" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="C162" s="13">
+        <v>0.57099999999999995</v>
+      </c>
+      <c r="D162" s="14">
+        <v>62.738999999999997</v>
+      </c>
+      <c r="E162" s="14">
+        <v>13.096423870000001</v>
+      </c>
+      <c r="F162" s="14">
+        <v>5.8611146190000003</v>
+      </c>
+      <c r="G162" s="11">
+        <v>2855.9638279999999</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A163" s="11">
+        <v>162</v>
+      </c>
+      <c r="B163" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="C163" s="13">
+        <v>0.56399999999999995</v>
+      </c>
+      <c r="D163" s="14">
+        <v>72.12</v>
+      </c>
+      <c r="E163" s="14">
+        <v>7.4187545269999999</v>
+      </c>
+      <c r="F163" s="14">
+        <v>5.9355200620000002</v>
+      </c>
+      <c r="G163" s="11">
+        <v>3917.702385</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A164" s="11">
+        <v>163</v>
+      </c>
+      <c r="B164" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="C164" s="13">
+        <v>0.56299999999999994</v>
+      </c>
+      <c r="D164" s="14">
+        <v>68.483999999999995</v>
+      </c>
+      <c r="E164" s="14">
+        <v>7.949540636</v>
+      </c>
+      <c r="F164" s="14">
+        <v>4.8520258619999996</v>
+      </c>
+      <c r="G164" s="11">
+        <v>6267.470808</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A165" s="11">
+        <v>164</v>
+      </c>
+      <c r="B165" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="C165" s="13">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="D165" s="14">
+        <v>54.462000000000003</v>
+      </c>
+      <c r="E165" s="14">
+        <v>10.51407</v>
+      </c>
+      <c r="F165" s="14">
+        <v>7.5859699249999997</v>
+      </c>
+      <c r="G165" s="11">
+        <v>5569.3749749999997</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A166" s="11">
+        <v>165</v>
+      </c>
+      <c r="B166" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="C166" s="13">
+        <v>0.55500000000000005</v>
+      </c>
+      <c r="D166" s="14">
+        <v>66.995000000000005</v>
+      </c>
+      <c r="E166" s="14">
+        <v>8.5857400889999997</v>
+      </c>
+      <c r="F166" s="14">
+        <v>6.0653500559999998</v>
+      </c>
+      <c r="G166" s="11">
+        <v>3514.632861</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A167" s="11">
+        <v>166</v>
+      </c>
+      <c r="B167" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="C167" s="13">
+        <v>0.55400000000000005</v>
+      </c>
+      <c r="D167" s="14">
+        <v>64.936000000000007</v>
+      </c>
+      <c r="E167" s="14">
+        <v>10.89635878</v>
+      </c>
+      <c r="F167" s="14">
+        <v>5.3822998999999996</v>
+      </c>
+      <c r="G167" s="11">
+        <v>2934.9258020000002</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A168" s="11">
+        <v>167</v>
+      </c>
+      <c r="B168" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="C168" s="13">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="D168" s="14">
+        <v>57.375</v>
+      </c>
+      <c r="E168" s="14">
+        <v>10.98659352</v>
+      </c>
+      <c r="F168" s="14">
+        <v>7.7298834860000003</v>
+      </c>
+      <c r="G168" s="11">
+        <v>3029.3856999999998</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A169" s="11">
+        <v>168</v>
+      </c>
+      <c r="B169" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="C169" s="13">
+        <v>0.54400000000000004</v>
+      </c>
+      <c r="D169" s="14">
+        <v>67.649000000000001</v>
+      </c>
+      <c r="E169" s="14">
+        <v>7.8951084900000001</v>
+      </c>
+      <c r="F169" s="14">
+        <v>4.3169870379999997</v>
+      </c>
+      <c r="G169" s="11">
+        <v>5501.1329320000004</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A170" s="11">
+        <v>169</v>
+      </c>
+      <c r="B170" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="C170" s="13">
+        <v>0.53</v>
+      </c>
+      <c r="D170" s="14">
+        <v>68.683000000000007</v>
+      </c>
+      <c r="E170" s="14">
+        <v>9.1427097320000001</v>
+      </c>
+      <c r="F170" s="14">
+        <v>2.934554012</v>
+      </c>
+      <c r="G170" s="11">
+        <v>4202.0307290000001</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A171" s="11">
+        <v>170</v>
+      </c>
+      <c r="B171" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="C171" s="13">
+        <v>0.52400000000000002</v>
+      </c>
+      <c r="D171" s="14">
+        <v>65.86</v>
+      </c>
+      <c r="E171" s="14">
+        <v>8.9778996860000007</v>
+      </c>
+      <c r="F171" s="14">
+        <v>4.6747271540000002</v>
+      </c>
+      <c r="G171" s="11">
+        <v>2812.0176019999999</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A172" s="11">
+        <v>171</v>
+      </c>
+      <c r="B172" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="C172" s="13">
+        <v>0.52200000000000002</v>
+      </c>
+      <c r="D172" s="14">
+        <v>61.895000000000003</v>
+      </c>
+      <c r="E172" s="14">
+        <v>10.911473859999999</v>
+      </c>
+      <c r="F172" s="14">
+        <v>7.3785610860000004</v>
+      </c>
+      <c r="G172" s="11">
+        <v>1431.0479310000001</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A173" s="11">
+        <v>172</v>
+      </c>
+      <c r="B173" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="C173" s="13">
+        <v>0.51700000000000002</v>
+      </c>
+      <c r="D173" s="14">
+        <v>67.352999999999994</v>
+      </c>
+      <c r="E173" s="14">
+        <v>9.9025917050000007</v>
+      </c>
+      <c r="F173" s="14">
+        <v>5.2437400820000004</v>
+      </c>
+      <c r="G173" s="11">
+        <v>1633.6926149999999</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A174" s="11">
+        <v>173</v>
+      </c>
+      <c r="B174" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="C174" s="13">
+        <v>0.51500000000000001</v>
+      </c>
+      <c r="D174" s="14">
+        <v>60.774000000000001</v>
+      </c>
+      <c r="E174" s="14">
+        <v>10.446479800000001</v>
+      </c>
+      <c r="F174" s="14">
+        <v>3.194200039</v>
+      </c>
+      <c r="G174" s="11">
+        <v>3805.5275160000001</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A175" s="11">
+        <v>174</v>
+      </c>
+      <c r="B175" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="C175" s="13">
+        <v>0.51400000000000001</v>
+      </c>
+      <c r="D175" s="14">
+        <v>64.084999999999994</v>
+      </c>
+      <c r="E175" s="14">
+        <v>10.63534621</v>
+      </c>
+      <c r="F175" s="14">
+        <v>3.673035</v>
+      </c>
+      <c r="G175" s="11">
+        <v>2403.0592369999999</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A176" s="11">
+        <v>175</v>
+      </c>
+      <c r="B176" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="C176" s="13">
+        <v>0.51300000000000001</v>
+      </c>
+      <c r="D176" s="14">
+        <v>65.986999999999995</v>
+      </c>
+      <c r="E176" s="14">
+        <v>6.2073500160000004</v>
+      </c>
+      <c r="F176" s="14">
+        <v>3.9504150299999998</v>
+      </c>
+      <c r="G176" s="11">
+        <v>6367.6060260000004</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A177" s="11">
+        <v>176</v>
+      </c>
+      <c r="B177" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="C177" s="13">
+        <v>0.51100000000000001</v>
+      </c>
+      <c r="D177" s="14">
+        <v>66.331000000000003</v>
+      </c>
+      <c r="E177" s="14">
+        <v>8.6203718780000003</v>
+      </c>
+      <c r="F177" s="14">
+        <v>3.9620000000000002</v>
+      </c>
+      <c r="G177" s="11">
+        <v>2810.3120119999999</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A178" s="11">
+        <v>177</v>
+      </c>
+      <c r="B178" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="C178" s="13">
+        <v>0.51</v>
+      </c>
+      <c r="D178" s="14">
+        <v>62.162999999999997</v>
+      </c>
+      <c r="E178" s="14">
+        <v>10.465853689999999</v>
+      </c>
+      <c r="F178" s="14">
+        <v>6.1698919549999998</v>
+      </c>
+      <c r="G178" s="11">
+        <v>1537.8593900000001</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A179" s="11">
+        <v>178</v>
+      </c>
+      <c r="B179" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="C179" s="13">
+        <v>0.503</v>
+      </c>
+      <c r="D179" s="14">
+        <v>68.623999999999995</v>
+      </c>
+      <c r="E179" s="14">
+        <v>7.3366722969999998</v>
+      </c>
+      <c r="F179" s="14">
+        <v>5.0913644199999997</v>
+      </c>
+      <c r="G179" s="11">
+        <v>2029.070062</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A180" s="11">
+        <v>179</v>
+      </c>
+      <c r="B180" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="C180" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="D180" s="14">
+        <v>60.74</v>
+      </c>
+      <c r="E180" s="14">
+        <v>10.393306259999999</v>
+      </c>
+      <c r="F180" s="14">
+        <v>2.4863390249999999</v>
+      </c>
+      <c r="G180" s="11">
+        <v>3494.3477229999999</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A181" s="11">
+        <v>180</v>
+      </c>
+      <c r="B181" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="C181" s="13">
+        <v>0.497</v>
+      </c>
+      <c r="D181" s="14">
+        <v>67.314999999999998</v>
+      </c>
+      <c r="E181" s="14">
+        <v>9.2176515709999993</v>
+      </c>
+      <c r="F181" s="14">
+        <v>2.4025398130000002</v>
+      </c>
+      <c r="G181" s="11">
+        <v>2795.5069840000001</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A182" s="11">
+        <v>181</v>
+      </c>
+      <c r="B182" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="C182" s="13">
+        <v>0.496</v>
+      </c>
+      <c r="D182" s="14">
+        <v>66.034999999999997</v>
+      </c>
+      <c r="E182" s="14">
+        <v>10.790143240000001</v>
+      </c>
+      <c r="F182" s="14">
+        <v>2.514790058</v>
+      </c>
+      <c r="G182" s="11">
+        <v>1971.549458</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A183" s="11">
+        <v>182</v>
+      </c>
+      <c r="B183" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="C183" s="13">
+        <v>0.49299999999999999</v>
+      </c>
+      <c r="D183" s="14">
+        <v>63.610999999999997</v>
+      </c>
+      <c r="E183" s="14">
+        <v>10.84830885</v>
+      </c>
+      <c r="F183" s="14">
+        <v>4.5904898640000003</v>
+      </c>
+      <c r="G183" s="11">
+        <v>1355.7670760000001</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A184" s="11">
+        <v>183</v>
+      </c>
+      <c r="B184" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="C184" s="13">
+        <v>0.48699999999999999</v>
+      </c>
+      <c r="D184" s="14">
+        <v>63.631999999999998</v>
+      </c>
+      <c r="E184" s="14">
+        <v>9.0625845030000001</v>
+      </c>
+      <c r="F184" s="14">
+        <v>4.5925202369999996</v>
+      </c>
+      <c r="G184" s="11">
+        <v>1655.7646830000001</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A185" s="11">
+        <v>184</v>
+      </c>
+      <c r="B185" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="C185" s="13">
+        <v>0.47</v>
+      </c>
+      <c r="D185" s="14">
+        <v>69.295000000000002</v>
+      </c>
+      <c r="E185" s="14">
+        <v>7.4949027350000001</v>
+      </c>
+      <c r="F185" s="14">
+        <v>5.4841499330000003</v>
+      </c>
+      <c r="G185" s="11">
+        <v>1018.2005799999999</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A186" s="11">
+        <v>185</v>
+      </c>
+      <c r="B186" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="C186" s="13">
+        <v>0.46700000000000003</v>
+      </c>
+      <c r="D186" s="14">
+        <v>61.786000000000001</v>
+      </c>
+      <c r="E186" s="14">
+        <v>9.0641245749999992</v>
+      </c>
+      <c r="F186" s="14">
+        <v>3.5352976090000001</v>
+      </c>
+      <c r="G186" s="11">
+        <v>1713.727772</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A187" s="11">
+        <v>186</v>
+      </c>
+      <c r="B187" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="C187" s="13">
+        <v>0.45900000000000002</v>
+      </c>
+      <c r="D187" s="14">
+        <v>61.091999999999999</v>
+      </c>
+      <c r="E187" s="14">
+        <v>8.7333402630000005</v>
+      </c>
+      <c r="F187" s="14">
+        <v>2.266550064</v>
+      </c>
+      <c r="G187" s="11">
+        <v>2390.5277780000001</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A188" s="11">
+        <v>187</v>
+      </c>
+      <c r="B188" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="C188" s="13">
+        <v>0.439</v>
+      </c>
+      <c r="D188" s="14">
+        <v>63.651000000000003</v>
+      </c>
+      <c r="E188" s="14">
+        <v>9.8294238790000001</v>
+      </c>
+      <c r="F188" s="14">
+        <v>3.4739355559999998</v>
+      </c>
+      <c r="G188" s="11">
+        <v>858.91556809999997</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A189" s="11">
+        <v>188</v>
+      </c>
+      <c r="B189" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="C189" s="13">
+        <v>0.41899999999999998</v>
+      </c>
+      <c r="D189" s="14">
+        <v>60.439</v>
+      </c>
+      <c r="E189" s="14">
+        <v>7.0113315329999999</v>
+      </c>
+      <c r="F189" s="14">
+        <v>1.6299999949999999</v>
+      </c>
+      <c r="G189" s="11">
+        <v>2341.5881180000001</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A190" s="11">
+        <v>188</v>
+      </c>
+      <c r="B190" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="C190" s="13">
+        <v>0.41899999999999998</v>
+      </c>
+      <c r="D190" s="14">
+        <v>61.183</v>
+      </c>
+      <c r="E190" s="14">
+        <v>8.308919801</v>
+      </c>
+      <c r="F190" s="14">
+        <v>1.4122893409999999</v>
+      </c>
+      <c r="G190" s="11">
+        <v>1590.18796</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A191" s="11">
+        <v>190</v>
+      </c>
+      <c r="B191" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="C191" s="13">
+        <v>0.41599999999999998</v>
+      </c>
+      <c r="D191" s="14">
+        <v>55.069000000000003</v>
+      </c>
+      <c r="E191" s="14">
+        <v>8.3475902309999999</v>
+      </c>
+      <c r="F191" s="14">
+        <v>2.334984892</v>
+      </c>
+      <c r="G191" s="11">
+        <v>1748.000992</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A192" s="11">
+        <v>191</v>
+      </c>
+      <c r="B192" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="C192" s="13">
+        <v>0.41399999999999998</v>
+      </c>
+      <c r="D192" s="14">
+        <v>57.408000000000001</v>
+      </c>
+      <c r="E192" s="14">
+        <v>7.4357677779999998</v>
+      </c>
+      <c r="F192" s="14">
+        <v>3.989431459</v>
+      </c>
+      <c r="G192" s="11">
+        <v>1099.8606810000001</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A193" s="11">
+        <v>192</v>
+      </c>
+      <c r="B193" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="C193" s="13">
+        <v>0.40400000000000003</v>
+      </c>
+      <c r="D193" s="14">
+        <v>58.816000000000003</v>
+      </c>
+      <c r="E193" s="14">
+        <v>7.4861651619999998</v>
+      </c>
+      <c r="F193" s="14">
+        <v>1.8999999759999999</v>
+      </c>
+      <c r="G193" s="11">
+        <v>1474.7384589999999</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A194" s="11">
+        <v>193</v>
+      </c>
+      <c r="B194" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="C194" s="13">
+        <v>0.38800000000000001</v>
+      </c>
+      <c r="D194" s="14">
+        <v>57.616999999999997</v>
+      </c>
+      <c r="E194" s="14">
+        <v>5.6347701409999997</v>
+      </c>
+      <c r="F194" s="14">
+        <v>5.7300000190000002</v>
+      </c>
+      <c r="G194" s="11">
+        <v>688.34727710000004</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001AD45DB714643E4A8A8C58D3ECEF2B52" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f669b596213e5a051e7725db4fd5b996">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b0611ad7-5071-45af-a141-b2a079deb018" xmlns:ns3="7f64e6aa-b736-4f26-84cc-faf427629e48" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="56318b2539e1210b0e90b2b0ddd42827" ns2:_="" ns3:_="">
     <xsd:import namespace="b0611ad7-5071-45af-a141-b2a079deb018"/>
@@ -9221,6 +13969,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -9228,14 +13985,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{72E73EB8-E924-4313-8969-E840D8168F7B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1BF5F26-63CB-435B-92DF-48B5958ABB1F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9254,6 +14003,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{72E73EB8-E924-4313-8969-E840D8168F7B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{04B82410-4ECD-4A5C-B695-015164DEC207}">
   <ds:schemaRefs>
